--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -508,7 +508,7 @@
     <t>Dose form of the manufactured item (before preparing for administration)</t>
   </si>
   <si>
-    <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
+    <t>EMA IG 4.11.3</t>
   </si>
   <si>
     <t>example</t>
@@ -715,7 +715,7 @@
     <t>Unit of presentation of the manufactured item (before preparing for administration)</t>
   </si>
   <si>
-    <t>The “real world” units in which the quantity of the manufactured item is described.</t>
+    <t>EMA IG 4.11.1</t>
   </si>
   <si>
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -600,7 +600,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000004/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -745,7 +745,7 @@
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.version</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
